--- a/examples/sources/data/unsolved/to_schedule/2018-11-26.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-11-26.xlsx
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" s="2">
         <v>43430</v>
